--- a/data/trans_bre/P26_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P26_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-25,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,52</t>
+          <t>4,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,06</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>205,76%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-8,92%</t>
+          <t>292,97%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>45,05%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>93,57%</t>
         </is>
       </c>
     </row>
@@ -668,27 +694,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-76,23; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,26</t>
+          <t>0,0; 16,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 40,44</t>
+          <t>-1,91; 19,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-54,53; 33,58</t>
+          <t>-10,48; 11,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,49; 13,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -702,6 +728,16 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,56</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,03</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>4,43</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-17,95</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>-20,93</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>306,79%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>68,03%</t>
+          <t>260,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-61,51%</t>
+          <t>109,56%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-41,91%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-82,24%</t>
         </is>
       </c>
     </row>
@@ -768,27 +814,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 56,7</t>
+          <t>0,0; 9,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 38,97</t>
+          <t>-2,18; 12,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 27,46</t>
+          <t>-4,81; 13,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,95; 4,53</t>
+          <t>-17,38; 5,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,63; 4,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -803,7 +849,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-93,43; 133,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 196,48</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,58</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>58,39%</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>46,79%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>68,65%</t>
+          <t>161,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>51,19%</t>
+          <t>82,06%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16,45%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>250,74%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 19,73</t>
+          <t>0,0; 5,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 14,67</t>
+          <t>-2,07; 8,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 24,47</t>
+          <t>-4,21; 11,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 20,89</t>
+          <t>-8,78; 7,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 10,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-67,53; 887,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-31,42; 428,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,77; 380,38</t>
+          <t>-48,01; inf</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-87,99; 364,11</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,4</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,33</t>
+          <t>11,53</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>317,56%</t>
+          <t>102,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>55,27%</t>
+          <t>517,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>180,66%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14,17%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>18,43%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 12,44</t>
+          <t>-3,21; 8,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 18,81</t>
+          <t>1,58; 13,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 22,41</t>
+          <t>2,95; 21,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 15,03</t>
+          <t>-8,2; 11,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-77,56; 346,34</t>
+          <t>-7,5; 9,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,01; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 261,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,4; 136,45</t>
+          <t>7,0; 745,15</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-54,2; 212,43</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-65,59; 246,86</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,11</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-4,12</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>336,88%</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>102,74%</t>
+          <t>221,42%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>147,57%</t>
+          <t>80,11%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-8,83%</t>
+          <t>260,76%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-44,25%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18,18%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 14,77</t>
+          <t>-1,41; 13,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 16,88</t>
+          <t>-4,84; 16,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,96; 24,2</t>
+          <t>-0,78; 17,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 8,64</t>
+          <t>-13,52; 5,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,12; 15,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-38,59; 615,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,54; 569,12</t>
+          <t>-61,64; 709,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-68,19; 158,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 145,19</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-72,62; 367,93</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,96</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-42,95%</t>
+          <t>14,25</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>70,25%</t>
+          <t>-18,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-64,04%</t>
+          <t>92,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>153,67%</t>
+          <t>-13,16%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>8,29%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1168,32 +1294,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,51; 4,52</t>
+          <t>-12,81; 7,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 11,89</t>
+          <t>-7,57; 15,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 1,77</t>
+          <t>-9,68; 4,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 44,54</t>
+          <t>-12,7; 16,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,51; 31,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-66,93; 744,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1329,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,93; 1693,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,03</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>33,57%</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>138,03%</t>
+          <t>74,03%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>89,54%</t>
+          <t>164,87%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>153,71%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-5,11%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-5,36%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 7,57</t>
+          <t>-0,66; 3,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,12; 11,86</t>
+          <t>1,72; 7,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,65; 14,96</t>
+          <t>2,71; 10,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 17,54</t>
+          <t>-4,57; 3,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-33,73; 205,23</t>
+          <t>-15,76; 6,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>32,88; 336,9</t>
+          <t>-40,45; 435,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>25,74; 204,74</t>
+          <t>31,76; 511,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 130,8</t>
+          <t>39,22; 391,75</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-43,6; 62,24</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-75,78; 155,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
